--- a/biology/Botanique/Elytrigia/Elytrigia.xlsx
+++ b/biology/Botanique/Elytrigia/Elytrigia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elytrigia est un genre de plantes monocotylédones de la famille des Poaceae, originaire des régions tempérées.
-158 espèces ont été décrites et rattachées au genre Elytrigia, cependant huit espèces seulement sont acceptées actuellement (2016)[1].
+158 espèces ont été décrites et rattachées au genre Elytrigia, cependant huit espèces seulement sont acceptées actuellement (2016).
 Ce sont des plantes herbacées vivaces, qui sont souvent des mauvaises herbes des cultures, dont la plus connue est le chiendent officinal.
 </t>
         </is>
@@ -513,10 +525,12 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Elytrigia sont des plantes herbacées vivaces aux tiges (chaumes) pouvant atteindre de 20 à 150 cm de long. L'inflorescence est un épi linéaire, érigé ou retombant, composé d'épillets isolés, sessiles ou sub-sessiles, plus ou moins comprimés latéralement, et comprenant en moyenne 7 (de 3 à 10) fleurons hermaphrodites.
-Le fruit est un caryopse aux glumelles adhérentes, de taille moyenne (4 à 6 mm de long), montrant un sillon longitudinal, et comprimé dans le sens dorsoventral[2].
+Le fruit est un caryopse aux glumelles adhérentes, de taille moyenne (4 à 6 mm de long), montrant un sillon longitudinal, et comprimé dans le sens dorsoventral.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (16 octobre 2016)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (16 octobre 2016) :
 Elytrigia disticha (Stapf) Prokudin
 Elytrigia × drucei Stace
 Elytrigia meotica (Prokudin) Prokudin
@@ -584,6 +600,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
